--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\iCloudDrive\Arbeit\CR-1993\Casser_Ryan_1993_Leo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikmeindl/Dropbox/Leo-Kasser Ryan 1993/TeamLeo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40337585-008C-479E-932E-10CE588F8C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F399C4D-C81B-594D-A63A-F8EEA51B4B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{CA2ABF59-8725-42C2-98E9-B37103DBB96A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CA2ABF59-8725-42C2-98E9-B37103DBB96A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="1_ASP" sheetId="2" r:id="rId2"/>
+    <sheet name="2_GPR" sheetId="3" r:id="rId3"/>
+    <sheet name="3_SA" sheetId="4" r:id="rId4"/>
+    <sheet name="4_VI" sheetId="5" r:id="rId5"/>
+    <sheet name="5_CO" sheetId="7" r:id="rId6"/>
+    <sheet name="6_DP" sheetId="6" r:id="rId7"/>
+    <sheet name="7_AN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +42,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F1160198-4553-1F4B-BB5E-849A9E59E9E3}</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{F1160198-4553-1F4B-BB5E-849A9E59E9E3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    On an Ordinal Scale
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="237">
   <si>
     <t>Variable Name</t>
   </si>
@@ -47,18 +73,24 @@
     <t>Range</t>
   </si>
   <si>
+    <t>Example Items</t>
+  </si>
+  <si>
+    <t>Psychological Outcomes</t>
+  </si>
+  <si>
     <t>SA</t>
   </si>
   <si>
+    <t>Self Actualization, using Self Actualization Inventory (Jones &amp; Crandall 1986) same as the original publication.</t>
+  </si>
+  <si>
     <t>1  Agree - 4 Disagree</t>
   </si>
   <si>
     <t>I do not feel ashamed of any of my emotions.</t>
   </si>
   <si>
-    <t>Psychological Outcomes</t>
-  </si>
-  <si>
     <t>I feel i must do what others expect me to do.</t>
   </si>
   <si>
@@ -68,21 +100,45 @@
     <t>Vitality, using (Ryan &amp; Fredericks, 1997). A Deviation of the original publication.</t>
   </si>
   <si>
+    <t>1 Not at all true - 7 Very true</t>
+  </si>
+  <si>
+    <t>I feel alive and vital.</t>
+  </si>
+  <si>
     <t>Using an updated scale, same items but on a 7 point instead of 4 point scale.</t>
   </si>
   <si>
-    <t>1 Not at all true - 7 Very true</t>
-  </si>
-  <si>
-    <t>I feel alive and vital.</t>
-  </si>
-  <si>
     <t>I dont feel energetic</t>
   </si>
   <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Orientation, using General Causality Orientation Scale (Deci &amp; Ryan, 1985).  12 Vignettes which each containing </t>
+  </si>
+  <si>
+    <t>1 Very unlikely - 7 Very likely</t>
+  </si>
+  <si>
+    <t>Will i make more at this position?</t>
+  </si>
+  <si>
+    <t>3 Questions capturing 1. Autonomy (A), 2. Control (C) and 3. Impersonal causality orientation (I). Orig Pub only used the control scale.</t>
+  </si>
+  <si>
+    <t>Make sure she does the assignments, because she should be working harer.</t>
+  </si>
+  <si>
     <t>DP</t>
   </si>
   <si>
+    <t>Depression, using the CES-D(Centre for Epidemiological Studies, Depression scale). Same as Orig. Pub.</t>
+  </si>
+  <si>
+    <t>Rarely (1) - Most or all of the time (4)</t>
+  </si>
+  <si>
     <t>I felt fearful.</t>
   </si>
   <si>
@@ -90,48 +146,48 @@
   </si>
   <si>
     <t>AN</t>
-  </si>
-  <si>
-    <t>Self Actualization, using Self Actualization Inventory (Jones &amp; Crandall 1986) same as the original publication.</t>
-  </si>
-  <si>
-    <t>Depression, using the CES-D(Centre for Epidemiological Studies, Depression scale). Same as Orig. Pub.</t>
   </si>
   <si>
     <t xml:space="preserve">Trait Anxiety, using the State-Trait Anxiety Inventory (Spielberger et al., 1970)
 </t>
   </si>
   <si>
+    <t>Almost never (1) - Almost always (4)</t>
+  </si>
+  <si>
     <t>I feel pleasant.</t>
   </si>
   <si>
+    <t>No access to original pub, therefore i had to mark reversed items just by text</t>
+  </si>
+  <si>
     <t>I feel secure.</t>
   </si>
   <si>
-    <t>Example Items</t>
-  </si>
-  <si>
-    <t>No access to original pub, therefore i had to mark reversed items just by text</t>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>age</t>
+    <t>origcount</t>
   </si>
   <si>
     <t>Country of birth</t>
   </si>
   <si>
-    <t>origcount</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
+    <t>Male (1), Female (2), Other (3), Rather not Disclose (4)</t>
+  </si>
+  <si>
     <t>residence</t>
   </si>
   <si>
@@ -147,15 +203,6 @@
     <t>Lower class (1) - Upper class (6)</t>
   </si>
   <si>
-    <t>Male (1), Female (2), Other (3), Rather not Disclose (4)</t>
-  </si>
-  <si>
-    <t>Almost never (1) - Almost always (4)</t>
-  </si>
-  <si>
-    <t>Rarely (1) - Most or all of the time (4)</t>
-  </si>
-  <si>
     <t>engunder</t>
   </si>
   <si>
@@ -165,35 +212,575 @@
     <t>Very Bad (1) - Very good (7)</t>
   </si>
   <si>
-    <t>Demographics</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control Orientation, using General Causality Orientation Scale (Deci &amp; Ryan, 1985).  12 Vignettes which each containing </t>
-  </si>
-  <si>
-    <t>1 Very unlikely - 7 Very likely</t>
-  </si>
-  <si>
-    <t>Will i make more at this position?</t>
-  </si>
-  <si>
-    <t>Make sure she does the assignments, because she should be working harer.</t>
-  </si>
-  <si>
-    <t>Added original introduction for questionaire in qualtrics</t>
-  </si>
-  <si>
-    <t>3 Questions capturing 1. Autonomy (A), 2. Control (C) and 3. Impersonal causality orientation (I). Orig Pub only used the control scale.</t>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>_R</t>
+  </si>
+  <si>
+    <t>AC_</t>
+  </si>
+  <si>
+    <t>AC_X</t>
+  </si>
+  <si>
+    <t>Attention Check, X as the count of the AC throughout the Questionnaire</t>
+  </si>
+  <si>
+    <t>X_R</t>
+  </si>
+  <si>
+    <t>Reversed Item, added as a suffix to distinguish reverse coded items. X is substituted for the Item in question.</t>
+  </si>
+  <si>
+    <t>Predictors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Stands for the Life Domain (e.g. AI_SAI) and Y is the count of the item. </t>
+  </si>
+  <si>
+    <t>1 Not at all - 5 Very Important</t>
+  </si>
+  <si>
+    <t>You will be the one in charge of your life.</t>
+  </si>
+  <si>
+    <t>You will know people that you can have fun with.</t>
+  </si>
+  <si>
+    <t>CAREFULL 4 Items were designated to not load onto their predicted factors</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>ASP_X_Y</t>
+  </si>
+  <si>
+    <t>Here we look at the same for as in the original pub. 1. Self-Acceptance (SA), 2. Affiliation (AF), 3. Community Feeling (CF) and 4. Financial Success (FS)</t>
+  </si>
+  <si>
+    <t>Aspiration Index , using the Items from (Casser &amp; Ryan, 1993). This Index evaluates the importance of a person in certain life domains as well as their chances of achieving these values.</t>
+  </si>
+  <si>
+    <t>If an I is added to the end of a facet (e.g. SAI) it designates this item as the Importance version. If a C is added (e.g. CFC) it marks this item as the Chance variable.</t>
+  </si>
+  <si>
+    <t>You will help people in need.</t>
+  </si>
+  <si>
+    <t>You will work for the betterment of society.</t>
+  </si>
+  <si>
+    <t>Both Questionnaires Importance and Chance use the same 21 items. With a different introduction.</t>
+  </si>
+  <si>
+    <t>GPR</t>
+  </si>
+  <si>
+    <t>Ranked 1-5 on an Ordinal scale</t>
+  </si>
+  <si>
+    <t>GPR_X_Y</t>
+  </si>
+  <si>
+    <t>X Stands for the Item 1-3, Y stands for the position in the ranking (e.g. 1 Very Important - 5 Least Important)</t>
+  </si>
+  <si>
+    <t>SA_X</t>
+  </si>
+  <si>
+    <t>X as the item count</t>
+  </si>
+  <si>
+    <t>VI_X</t>
+  </si>
+  <si>
+    <t>I have energy and spirit.</t>
+  </si>
+  <si>
+    <t>Scold her and hope she does better.</t>
+  </si>
+  <si>
+    <t>CO_X</t>
+  </si>
+  <si>
+    <t>DP_X</t>
+  </si>
+  <si>
+    <t>AN_X</t>
+  </si>
+  <si>
+    <t>Gilad students took those from 1993 (which has no documentation) and supplemented last by schwartz 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Money (coded as 1, mentioned as Growth in 1996 Documentation, representing Self-acceptance) 2. Family Security  (coded as 2, as Relatedness,repesentign Affiliation) </t>
+  </si>
+  <si>
+    <t>3. Global welfare (coded as 3, as helpfulness, representing Community Feeling)  4. Spirituality (coded as 4) 5. Hedonism (coded as 5)</t>
+  </si>
+  <si>
+    <t>Guiding principles taken out of Author communication stating item should more or less be the same. Only 3 Domains possible to be taken from 1996 Guiding Principle paper (Money, global welfare and Family securiy). Therefpre last two had to be substituted. Facets were renamed for the 1996 Study but essentially represent the same construct.</t>
+  </si>
+  <si>
+    <t>Hedonism and spirituality subscale cant be found anywhere students say 1993 but cant find any documentation. Gilad students apprently found somehting there. AI think they documented wrong and took hedonism and spirituality from schwartz since items are identical. I changed their wrong family subscale and checked in schwartz for the other two</t>
+  </si>
+  <si>
+    <t>Guiding Principle Ranking, using (Casser and Ryan, 1996 for 1,2,3) and Schwartz 1992 for (4 and 5)</t>
+  </si>
+  <si>
+    <t>Material posessions (money property etc.)</t>
+  </si>
+  <si>
+    <t>Inner harmony (at peace with myself)</t>
+  </si>
+  <si>
+    <t>Devout (holding to religious faith &amp; belief)</t>
+  </si>
+  <si>
+    <t>An exciting life (stimulating experience)</t>
+  </si>
+  <si>
+    <t>Had to use Healthy item from schwatz as substitute for stimulating experience as this was a different faccet. They didnt confirm the factor structure they set in this study. But they postulated that these items belong to the hedonism subscale. This was one of the only ways to for ma hedonism subscale fitting the time the study released.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Pre-/Suffixes</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>At the end of your life you will look back on your life as meaningful and complete.</t>
+  </si>
+  <si>
+    <t>You will deal effectively with problems that come up in your life.</t>
+  </si>
+  <si>
+    <t>You will know and accept who you really are.</t>
+  </si>
+  <si>
+    <t>You will have good friends that you can count on.</t>
+  </si>
+  <si>
+    <t>You will have people who care about you and are supportive.</t>
+  </si>
+  <si>
+    <t>You will have a couple of good friends that you can talk to about personal things.</t>
+  </si>
+  <si>
+    <t>You will share your life with someone you love.</t>
+  </si>
+  <si>
+    <t>You will be married to one person for life.</t>
+  </si>
+  <si>
+    <t>You will work to make the world a better place.</t>
+  </si>
+  <si>
+    <t>You will help others improve their lives.</t>
+  </si>
+  <si>
+    <t>You will donate time or money to charity.</t>
+  </si>
+  <si>
+    <t>Please press "very important" to indicate your reading the questions properly.</t>
+  </si>
+  <si>
+    <t>You teach others the things that you know.</t>
+  </si>
+  <si>
+    <t>You will buy things just because you want them.</t>
+  </si>
+  <si>
+    <t>You will be financially successful.</t>
+  </si>
+  <si>
+    <t>You will be your own boss.</t>
+  </si>
+  <si>
+    <t>You will have a job with high social status.</t>
+  </si>
+  <si>
+    <t>You will have a job that pays well.</t>
+  </si>
+  <si>
+    <t>Subscale</t>
+  </si>
+  <si>
+    <t>Self Acceptance Importance</t>
+  </si>
+  <si>
+    <t>Affiliation Importance</t>
+  </si>
+  <si>
+    <t>Community Feeling Importance</t>
+  </si>
+  <si>
+    <t>Attentioncheck</t>
+  </si>
+  <si>
+    <t>Financial Success Importance</t>
+  </si>
+  <si>
+    <t>Everyone has long-term Goals or Aspirations. These are the things that individuals hope to accomplish over the course of their lives. In this section, you will find a number of life goals, presented one at a time.</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>1 (Not at all)</t>
+  </si>
+  <si>
+    <t>5 (Very important)</t>
+  </si>
+  <si>
+    <t>You will teach others the things that you know.</t>
+  </si>
+  <si>
+    <t>Self Acceptance Chance</t>
+  </si>
+  <si>
+    <t>Affiliation Chance</t>
+  </si>
+  <si>
+    <t>Community Feeling Chance</t>
+  </si>
+  <si>
+    <t>Financial Success Chance</t>
+  </si>
+  <si>
+    <t>1 (Very low)</t>
+  </si>
+  <si>
+    <t>5 (Very high)</t>
+  </si>
+  <si>
+    <t>Please rank order the following values on the basis of how much each value is a guiding principle in your life.</t>
+  </si>
+  <si>
+    <t>1 (Very important)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (Least important) </t>
+  </si>
+  <si>
+    <t>Material possesions (money, property, etc.)</t>
+  </si>
+  <si>
+    <t>True friendship (having genuine and close friends)</t>
+  </si>
+  <si>
+    <t>Socially active (trying to make the world better)</t>
+  </si>
+  <si>
+    <t>Enjoying life (enjoying food, sex, leisure, etc.)</t>
+  </si>
+  <si>
+    <t>Prestigious employment (well-paid, high-positioned job)</t>
+  </si>
+  <si>
+    <t>Mature love (having a relationship of deep and lasting affection)</t>
+  </si>
+  <si>
+    <t>Helpful (Always ready to assist others)</t>
+  </si>
+  <si>
+    <t>Healthy (not being sick physically or mentally)</t>
+  </si>
+  <si>
+    <t>Economic prosperity (being financially well-off)</t>
+  </si>
+  <si>
+    <t>Security for loved ones (taking care of loved ones)</t>
+  </si>
+  <si>
+    <t>Generous (sharing what you have with others)</t>
+  </si>
+  <si>
+    <t>A spiritual life (emphasis on spiritual not material matters)</t>
+  </si>
+  <si>
+    <t>Pleasure (gratification of desires)</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Family Security</t>
+  </si>
+  <si>
+    <t>Global Welfare</t>
+  </si>
+  <si>
+    <t>Spirituality</t>
+  </si>
+  <si>
+    <t>Hedonism</t>
+  </si>
+  <si>
+    <t>I do not feel ashamed of any of my emotions</t>
+  </si>
+  <si>
+    <t>I feel I must do what others expect me to do</t>
+  </si>
+  <si>
+    <t>I believe that people are essentially good and can be trusted</t>
+  </si>
+  <si>
+    <t>I feel free to be angry at those I love</t>
+  </si>
+  <si>
+    <t>I am reading the question properly. To indicate this please press "agree"</t>
+  </si>
+  <si>
+    <t>It is always necessary that others approve of what I do</t>
+  </si>
+  <si>
+    <t>I don't accept my own weaknesses</t>
+  </si>
+  <si>
+    <t>I can like people without having to approve of them</t>
+  </si>
+  <si>
+    <t>I fear failure</t>
+  </si>
+  <si>
+    <t>I avoid attempts to analyze and simplify complex domains</t>
+  </si>
+  <si>
+    <t>It is better to be yourself than to be popular</t>
+  </si>
+  <si>
+    <t>I have no mission in life to which I feel especially dedicated</t>
+  </si>
+  <si>
+    <t>I can express my feelings even when they may result in undesirable consequences</t>
+  </si>
+  <si>
+    <t>I do not feel responsible to help anybody</t>
+  </si>
+  <si>
+    <t>I am bothered by fears of being inadequate</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Self Actualization</t>
+  </si>
+  <si>
+    <t>I am loved because I give love</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Please rate to what extent you agree with the following statements. </t>
+  </si>
+  <si>
+    <t>1 (Agree)</t>
+  </si>
+  <si>
+    <t>4 (Disagree)</t>
+  </si>
+  <si>
+    <t>Please respond to each of the following statements by indicating the degree to which the statement is true for you in general in your life.</t>
+  </si>
+  <si>
+    <t>1 (Not true at all)</t>
+  </si>
+  <si>
+    <t>7 (Very true)</t>
+  </si>
+  <si>
+    <t>I feel alive and vital</t>
+  </si>
+  <si>
+    <t>I don't feel very energetic</t>
+  </si>
+  <si>
+    <t>Sometimes I feel so alive I just want to burst</t>
+  </si>
+  <si>
+    <t>I have energy and spirit</t>
+  </si>
+  <si>
+    <t>I look forward to each new day</t>
+  </si>
+  <si>
+    <t>I nearly always feel alert and awake</t>
+  </si>
+  <si>
+    <t>I feel energized</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>Below is a list of the ways you might have felt or behaved. Please rate how often you have felt this way during the past week.</t>
+  </si>
+  <si>
+    <t>4 (Most or all of the time (5-7 days))</t>
+  </si>
+  <si>
+    <t>1 (Rarely or none of the time (less than 1 day))</t>
+  </si>
+  <si>
+    <t>I was bothered by things that usually don't bother me</t>
+  </si>
+  <si>
+    <t>I did not feel like eating; my appetite was poor</t>
+  </si>
+  <si>
+    <t>I felt that I could not shake off the blues even with help from my family or friends</t>
+  </si>
+  <si>
+    <t>I felt I was just as good as other people</t>
+  </si>
+  <si>
+    <t>I had trouble keeping my mind on what I was doing</t>
+  </si>
+  <si>
+    <t>I felt depressed</t>
+  </si>
+  <si>
+    <t>I felt that everything I did was an effort</t>
+  </si>
+  <si>
+    <t>I felt hopeful about the future</t>
+  </si>
+  <si>
+    <t>I thought my life had been a failure</t>
+  </si>
+  <si>
+    <t>I felt fearful</t>
+  </si>
+  <si>
+    <t>My sleep was restless</t>
+  </si>
+  <si>
+    <t>I was happy</t>
+  </si>
+  <si>
+    <t>I talked less than usual</t>
+  </si>
+  <si>
+    <t>I felt lonely</t>
+  </si>
+  <si>
+    <t>People were unfriendly</t>
+  </si>
+  <si>
+    <t>I enjoyed life</t>
+  </si>
+  <si>
+    <t>I had crying spells</t>
+  </si>
+  <si>
+    <t>I felt sad</t>
+  </si>
+  <si>
+    <t>I felt that people dislike me</t>
+  </si>
+  <si>
+    <t>I could not get "going"</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>A number of statements which people have used to describe themselves are given below. Please rate how often you generally feel this way.</t>
+  </si>
+  <si>
+    <t>1 (Almost Never)</t>
+  </si>
+  <si>
+    <t>4 (Almost always)</t>
+  </si>
+  <si>
+    <t>I feel pleasant</t>
+  </si>
+  <si>
+    <t>I feel nervous and restless</t>
+  </si>
+  <si>
+    <t>I feel satisfied with myself</t>
+  </si>
+  <si>
+    <t>I wish I could be as happy as others seem to be</t>
+  </si>
+  <si>
+    <t>I feel like a failure</t>
+  </si>
+  <si>
+    <t>I feel rested</t>
+  </si>
+  <si>
+    <t>I am "calm, cool, and collected"</t>
+  </si>
+  <si>
+    <t>I feel that difficulties are piling up so that I cannot overcome them</t>
+  </si>
+  <si>
+    <t>I worry too much over something that really doesn't matter</t>
+  </si>
+  <si>
+    <t>I am happy</t>
+  </si>
+  <si>
+    <t>I have disturbing thoughts</t>
+  </si>
+  <si>
+    <t>I lack self-confidence</t>
+  </si>
+  <si>
+    <t>I feel secure</t>
+  </si>
+  <si>
+    <t>I make decisions easily</t>
+  </si>
+  <si>
+    <t>I feel inadequate</t>
+  </si>
+  <si>
+    <t>I am content</t>
+  </si>
+  <si>
+    <t>Some unimportant thought runs through my mind and bothers me</t>
+  </si>
+  <si>
+    <t>I take disappointments so keenly that I can't put them out of my mind</t>
+  </si>
+  <si>
+    <t>I am a steady person</t>
+  </si>
+  <si>
+    <t>I get in a state of tension or turmoil as I think over my recent concerns and interests</t>
+  </si>
+  <si>
+    <t>To indicate your still attentively reading the question please press the second option from the right</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +801,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +846,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -371,11 +1007,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,91 +1071,183 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -482,7 +1260,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Dominik Meindl" id="{8C9C6CFC-8EC3-CF47-B2C1-1BFB8F83E612}" userId="38394b73c57cc586" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,301 +1560,2770 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B19" dT="2023-12-04T10:28:51.36" personId="{8C9C6CFC-8EC3-CF47-B2C1-1BFB8F83E612}" id="{F1160198-4553-1F4B-BB5E-849A9E59E9E3}">
+    <text xml:space="preserve">On an Ordinal Scale
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C725B-55EF-4828-AA8A-4F412804236B}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="128.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="73.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="18.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="28.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="148.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="255.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="59">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="42">
+        <v>2</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="46">
+        <v>3</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="61">
+        <v>4</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="61">
+        <v>5</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="57"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="57"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="61">
+        <v>6</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="F19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="57"/>
+      <c r="B21" s="61">
+        <v>7</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="64">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="53"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="53"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="53"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="53"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921A958D-834C-430D-9F76-EB7DC581C881}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="67">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="67">
+        <v>18</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="67">
+        <v>20</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="68">
+        <v>21</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="67">
+        <v>22</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="68">
+        <v>23</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="67">
+        <v>24</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="68">
+        <v>25</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="67">
+        <v>26</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="68">
+        <v>27</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="67">
+        <v>28</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="68">
+        <v>29</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="67">
+        <v>30</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="68">
+        <v>31</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="67">
+        <v>32</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="68">
+        <v>33</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="67">
+        <v>34</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="68">
+        <v>35</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="67">
+        <v>36</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="68">
+        <v>37</v>
+      </c>
+      <c r="B44" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="67">
+        <v>38</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="68">
+        <v>39</v>
+      </c>
+      <c r="B46" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="67">
+        <v>40</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="68">
+        <v>41</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="67">
+        <v>42</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="68">
+        <v>43</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C669EB60-3A5A-A94F-96C6-919A46D2F391}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B4" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81B3627-E271-664C-864F-C49B7063576C}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="67">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43E695-E58F-2140-A0AA-D6193CE24411}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="105.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46D2071-47E2-7D40-B83C-A0282051CC6C}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0F8EB-BD0D-D547-95CF-4A04F36262E4}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="95.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="67">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="67">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="67">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="B19" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="67">
+        <v>20</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A480C4E0-FF68-6941-AE3B-CA7704F1F460}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="B5" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="16" t="s">
+      <c r="B6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="68">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="B8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="68">
         <v>9</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="B10" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="68">
         <v>11</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="B12" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16" t="s">
+      <c r="B13" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="68">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B15" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="67">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="67">
+        <v>18</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="68">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B20" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="67">
         <v>20</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="B21" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="68">
         <v>21</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="31"/>
+      <c r="B22" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1335,16 +4584,9 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D20D11C-B8A8-4BEE-9AAD-A21E37D33122}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dbaa181b-c140-4fdf-9ebc-0c8f69a289a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f6223719-464d-4bd4-8c86-0c1a3cd7e183"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>